--- a/html/Kiropraktorsystemer_excel.XLSX
+++ b/html/Kiropraktorsystemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD73E80-71F6-4B4C-BCE8-A7B4B0826B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1503BDE7-A3AF-4E8F-863C-0602A0193188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Kiropraktorsystemer">'Opdateret d. 12-05-2025'!$A$1:$J$32</definedName>
+    <definedName name="Kiropraktorsystemer">'Opdateret d. 16-05-2025'!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Kiropraktorsystemer_excel.XLSX
+++ b/html/Kiropraktorsystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1503BDE7-A3AF-4E8F-863C-0602A0193188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A8313F-1056-4E61-83D3-6DBDCE84ED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Kiropraktorsystemer">'Opdateret d. 16-05-2025'!$A$1:$J$32</definedName>
+    <definedName name="Kiropraktorsystemer">'Opdateret d. 02-12-2025'!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1261,7 +1261,7 @@
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
         <v>18</v>

--- a/html/Kiropraktorsystemer_excel.XLSX
+++ b/html/Kiropraktorsystemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A8313F-1056-4E61-83D3-6DBDCE84ED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C8F72F-97AB-44F9-861D-09CACF8DC8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Kiropraktorsystemer_excel.XLSX
+++ b/html/Kiropraktorsystemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C8F72F-97AB-44F9-861D-09CACF8DC8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6D8C34-7F6D-42CA-BAC7-C42B51E27F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Kiropraktorsystemer">'Opdateret d. 02-12-2025'!$A$1:$J$32</definedName>
+    <definedName name="Kiropraktorsystemer">'Opdateret d. 05-12-2025'!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -529,9 +529,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -627,7 +627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -659,7 +659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -685,7 +685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -746,7 +746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -798,7 +798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -827,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -856,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -885,7 +885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -917,7 +917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -946,7 +946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -969,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -992,7 +992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>51</v>
       </c>

--- a/html/Kiropraktorsystemer_excel.XLSX
+++ b/html/Kiropraktorsystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6D8C34-7F6D-42CA-BAC7-C42B51E27F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD66A840-5401-4EB7-AA43-E986C2786860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Kiropraktorsystemer">'Opdateret d. 05-12-2025'!$A$1:$J$32</definedName>
+    <definedName name="Kiropraktorsystemer">'Opdateret d. 19-12-2025'!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -529,9 +529,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -627,7 +627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -659,7 +659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -685,7 +685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -746,7 +746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -798,7 +798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -827,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -856,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -885,7 +885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -917,7 +917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -946,7 +946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -969,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -992,7 +992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
